--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuong trinh\eclipse-java-2022-03-R-win32-x86_64\eclipse-java-2022-03-R-win32-x86_64\DACN_Tester\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F14BD7-581B-4BC1-BA87-AF15E70746D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1161F18-EEFF-4144-A110-8870ABEAF862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC677799-098A-4065-AC80-450F492020E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Result</t>
   </si>
@@ -200,6 +200,9 @@
 6. Update cart
 Cập nhật cart thành công
 7. Remove cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -671,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659CED9-D00D-4833-B084-123B997EF8CF}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,6 +838,11 @@
       </c>
       <c r="H6" s="4"/>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,9 +948,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,19 +1134,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7707BA32-DFD0-45A1-B8C4-DAFBDAC74B99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD1D7F-E37F-40AD-990D-7F828027C610}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1160,9 +1167,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD1D7F-E37F-40AD-990D-7F828027C610}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7707BA32-DFD0-45A1-B8C4-DAFBDAC74B99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>